--- a/data/Lota.xlsx
+++ b/data/Lota.xlsx
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,11 +5187,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5200,12 +5200,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">

--- a/data/Lota.xlsx
+++ b/data/Lota.xlsx
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,11 +5187,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5200,12 +5200,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">

--- a/data/Lota.xlsx
+++ b/data/Lota.xlsx
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,11 +5187,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5200,12 +5200,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">

--- a/data/Lota.xlsx
+++ b/data/Lota.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">

--- a/data/Lota.xlsx
+++ b/data/Lota.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos químicos industriales desde Talcahuano a la planta CFI Horcones</t>
+          <t>Optimización Operacional Planta Lota</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacifico S. A.</t>
+          <t>Industrias Isla Quihua S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/11/2020</t>
+          <t>16/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149102739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158048339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fuerte Viejo Lota</t>
+          <t>Transporte Ferroviario de insumos químicos industriales desde Talcahuano a la planta CFI Horcones</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SEC Servicios de Construcción y Edificación S.A.</t>
+          <t>Ferrocarril del Pacifico S. A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25900</v>
+        <v>3000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/10/2020</t>
+          <t>25/11/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148354600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149102739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Instalación de estanques de almacenamiento de Gas Licuado</t>
+          <t>Fuerte Viejo Lota</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lota Protein S.A.</t>
+          <t>SEC Servicios de Construcción y Edificación S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>25900</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10/07/2020</t>
+          <t>14/10/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147113469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148354600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Instalación de estanques de almacenamiento de Gas Licuado</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Lota Protein S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9903</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>10/07/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147113469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20000</v>
+        <v>9903</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de RILES y modificación de punto de descarga</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Industrias Isla Quihua S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2020</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/11/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130897981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Subestación Seccionadora Lota</t>
+          <t>Planta de tratamiento de RILES y modificación de punto de descarga</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Industrias Isla Quihua S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1863</v>
+        <v>2020</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/07/2015</t>
+          <t>23/11/2015</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130631683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130897981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Subestación Seccionadora Lota</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5000</v>
+        <v>1863</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>21/07/2015</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130631683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,40 +1240,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión 1x220 kV, Tubul-Lagunillas</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Parque Eólico Arauco S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>15400</v>
+        <v>5000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/08/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128495129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proyecto Loteo Conjunto Habitacional Ex Fundición</t>
+          <t>Línea de Alta Tensión 1x220 kV, Tubul-Lagunillas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Régulo Valenzuela y Cía. Ltda.</t>
+          <t>Parque Eólico Arauco S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>23058</v>
+        <v>15400</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/05/2013</t>
+          <t>22/08/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8181184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128495129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Proyecto Loteo Conjunto Habitacional Ex Fundición</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Régulo Valenzuela y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>250</v>
+        <v>23058</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>20/05/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8181184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROYECTO LOTEO CONJUNTO HABITACIONAL EX FUNDICION - LOTA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Régulo Valenzuela y Cía. Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>23028</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7900033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>PROYECTO LOTEO CONJUNTO HABITACIONAL EX FUNDICION - LOTA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Régulo Valenzuela y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>706</v>
+        <v>23028</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7900033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Proyecto Loteo Conjunto Habitacional Ex Fundición - Lota</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Régulo Valenzuela y Cía. Ltda.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>22928</v>
+        <v>706</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/06/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6943932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Proyecto Loteo Conjunto Habitacional Ex Fundición - Lota</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Régulo Valenzuela y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>22928</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>04/06/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6943932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,40 +1720,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modernización Ampliación Planta Arauco</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>27/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6856586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,40 +1768,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Modernización Ampliación Planta Arauco</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>27/04/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6856586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Loteo Conjunto Habitacional Ex Fundición - Lota</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Régulo Valenzuela y Cía. Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>23600</v>
+        <v>200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Loteo Conjunto Habitacional Ex Fundición - Lota</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Régulo Valenzuela y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>23600</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,21 +2315,21 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Reconstrucción Industrias Isla Quihua S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Industrias Isla Quihua S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>25/11/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5104599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Regularización Ambiental Reconstrucción Industrias Isla Quihua S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Industrias Isla Quihua S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/11/2010</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5104599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4050</v>
+        <v>300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Extracción de Carbón Mineral Bituminoso en la Bahía de Lota EXTRACCION DE CARBON DE FONDO MARINO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>María Moraga Latapiat</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1323</v>
+        <v>20</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2838848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Extracción de Carbón Mineral Bituminoso en la Bahía de Lota EXTRACCION DE CARBON DE FONDO MARINO (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>María Moraga Latapiat</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1323</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>11/04/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2838848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Regularización COLCURA S.A. Colcura (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>COLCURA S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Regularización COLCURA S.A. Colcura (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>COLCURA S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>15/01/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Modificación PRMC Trazado By-Pass Lota (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>29/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2338032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Modificación PRMC Trazado By-Pass Lota (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>29/08/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2338032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,36 +3880,40 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Concesión Ruta 160 tramo Tres Pinos - Acceso Norte a Coronel</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Costa Arauco S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>225000</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2439897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,40 +3928,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Concesión Ruta 160 tramo Tres Pinos - Acceso Norte a Coronel</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Sociedad Concesionaria Autopista Costa Arauco S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>225000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>09/08/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2439897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Modificación PRMC (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3982,30 +3982,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>20/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Modificación PRMC (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4030,20 +4030,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>20/06/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,21 +4087,21 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4131,25 +4131,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4179,25 +4179,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4235,17 +4235,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4275,25 +4275,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4323,25 +4323,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4371,25 +4371,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4427,17 +4427,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4467,25 +4467,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4515,25 +4515,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4563,25 +4563,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4619,17 +4619,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4659,25 +4659,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4707,25 +4707,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4755,15 +4755,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4803,15 +4803,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Caselli e Hija Ltda.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1365100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4851,25 +4851,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Caselli e Hija Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>07/04/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1365100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4899,25 +4899,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4947,25 +4947,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MICHAEL CASELLI RAMIREZ</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>41</v>
+        <v>4000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,15 +4995,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>MICHAEL CASELLI RAMIREZ</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4000</v>
+        <v>41</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,25 +5043,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,25 +5091,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Lota Protein S.A. Sitralota (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5134,20 +5134,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Lota Protein S.A.</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10/01/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Lota Protein S.A. Sitralota (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5182,30 +5182,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Lota Protein S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>22</v>
+        <v>1800</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>10/01/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Lota Protein S.A. LotaProteina (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5278,30 +5278,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>José Simón Gundelach Hernández</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>19/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1136050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Lota Protein S.A. LotaProteina (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5326,30 +5326,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>José Simón Gundelach Hernández</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>160</v>
+        <v>1800</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>19/12/2005</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1136050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,15 +5379,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,15 +5427,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5475,11 +5475,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,11 +5523,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Regularización Planta de Tableros de Madera Terciados TULSA S.A. TULSA (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,30 +5566,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TULSA S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1250</v>
+        <v>200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=871441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Regularización Planta de Tableros de Madera Terciados TULSA S.A. TULSA (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5614,30 +5614,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>TULSA S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>200</v>
+        <v>1250</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=871441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,15 +5667,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5723,17 +5723,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,15 +5763,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,25 +5811,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Agua Potable Recinto El Bollo - Lota (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,20 +5854,20 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>15/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=480869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Astillero Artesanal Faúndez (e-seia)</t>
+          <t>Mejoramiento Sistema de Agua Potable Recinto El Bollo - Lota (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,15 +5907,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Astilleros Faúndez y Cía Ltda</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>30/08/2004</t>
+          <t>15/10/2004</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=429106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=480869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Astillero Artesanal Faúndez (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,20 +5950,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Astilleros Faúndez y Cía Ltda</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>30/08/2004</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=429106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,15 +6003,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Astillero Artesanal Faúndez (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Astilleros Faúndez y Cía Ltda</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=353726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cambio del lugar de disposición de RILES de la empresa Haripesca Ltda. (e-seia)</t>
+          <t>Astillero Artesanal Faúndez (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,25 +6099,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Pesquera Isla Quihua S.A.</t>
+          <t>Astilleros Faúndez y Cía Ltda</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>14/10/2003</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=175295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=353726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Cambio del lugar de disposición de RILES de la empresa Haripesca Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6142,20 +6142,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Pesquera Isla Quihua S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>14/10/2003</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=175295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Lota sector Villa Los Aromos (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,20 +6190,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Ilustre Municiapalidad de Lota</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>08/08/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=149468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CENTRO DE ACUICULTURA MARINA DE CHORITOS (MYTILUS CHILENSIS) EN BAHIA COLCURA, COMUNA DE LOTA (e-seia)</t>
+          <t>Modificación Plan Regulador de Lota sector Villa Los Aromos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,15 +6243,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Bladimir del Carmen Castillo Rodríguez</t>
+          <t>Ilustre Municiapalidad de Lota</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>08/08/2003</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=93918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=149468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Construcción casetas sanitarias El Roble - Caleta El Blanco - Población Julio Rivas</t>
+          <t>CENTRO DE ACUICULTURA MARINA DE CHORITOS (MYTILUS CHILENSIS) EN BAHIA COLCURA, COMUNA DE LOTA (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,15 +6291,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lota</t>
+          <t>Bladimir del Carmen Castillo Rodríguez</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2826</v>
+        <v>34</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>28/01/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=93918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Pescado Fresco-Congelado Océano Polar Ltda</t>
+          <t>Construcción casetas sanitarias El Roble - Caleta El Blanco - Población Julio Rivas</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Oceano Polar Ltda</t>
+          <t>Ilustre Municipalidad de Lota</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>180</v>
+        <v>2826</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>18/04/2002</t>
+          <t>28/01/2003</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Lota Sector Fresia</t>
+          <t>Planta Elaboradora de Pescado Fresco-Congelado Océano Polar Ltda</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Ilustre Municiapalidad de Lota</t>
+          <t>Oceano Polar Ltda</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>19/11/2001</t>
+          <t>18/04/2002</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Comunal de Lota Sector Fresia</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6430,30 +6430,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ilustre Municiapalidad de Lota</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>19/11/2001</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Agua Potable de Lota</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6478,30 +6478,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1180</v>
+        <v>200</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09/03/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Plan Regulador Metropolitano de Concepción</t>
+          <t>Mejoramiento Sistema de Tratamiento de Agua Potable de Lota</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,25 +6531,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (VIII Región)</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>05/09/2000</t>
+          <t>09/03/2001</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Pescado Fresco Enfriado</t>
+          <t>Plan Regulador Metropolitano de Concepción</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,25 +6579,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Empacadora Lota Seafoods S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (VIII Región)</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>05/09/2000</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Alimentos Frionatur Ltda.</t>
+          <t>Planta Elaboradora de Pescado Fresco Enfriado</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Empresa Comercializadora de Productos Alimenticios Frionatur Ltda.</t>
+          <t>Empacadora Lota Seafoods S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>31/03/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Nueva Actividad de Almacenamiento de Productos Agroquímicos y Residuos Derivados de Agroquímicos a Realizarse en Ex Bodega de Materiales</t>
+          <t>Planta Procesadora de Alimentos Frionatur Ltda.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,11 +6675,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Forestal y Agrícola Monte Águila S.A.</t>
+          <t>Empresa Comercializadora de Productos Alimenticios Frionatur Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>150</v>
+        <v>3000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2803&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Mitilidos de Colcura</t>
+          <t>Modificación de Proyecto Nueva Actividad de Almacenamiento de Productos Agroquímicos y Residuos Derivados de Agroquímicos a Realizarse en Ex Bodega de Materiales</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,15 +6723,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Ugo Michelangelo Lara Hadi</t>
+          <t>Forestal y Agrícola Monte Águila S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>17/03/2000</t>
+          <t>31/03/2000</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2803&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Filetes de Pescado-Lota</t>
+          <t>Centro de Cultivo Mitilidos de Colcura</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,15 +6771,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Fábrica de Harina de Pescado Ltda.</t>
+          <t>Ugo Michelangelo Lara Hadi</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>17/03/2000</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Planta Elaboradora de Filetes de Pescado-Lota</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,20 +6814,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Fábrica de Harina de Pescado Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2500</v>
+        <v>990</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural al Sector Industrial de Lota</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,20 +6862,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Servicio de Gas Natural SGN Transportes S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>23/03/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro de Marinocultura de Ostión del Norte y Alga Gracilarea</t>
+          <t>Abastecimiento de Gas Natural al Sector Industrial de Lota</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,15 +6915,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sindicato de Trab. Independientes de Pescadores Artesanales y Act. Conexas de Caleta Lota Baj</t>
+          <t>Servicio de Gas Natural SGN Transportes S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>140</v>
+        <v>800</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>26/02/1999</t>
+          <t>23/03/1999</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,12 +6948,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mejoramiento Alcantarillado y Tratamiento Aguas Servidas de Lota</t>
+          <t>Centro de Marinocultura de Ostión del Norte y Alga Gracilarea</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6963,15 +6963,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sindicato de Trab. Independientes de Pescadores Artesanales y Act. Conexas de Caleta Lota Baj</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>9000</v>
+        <v>140</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>23/05/1997</t>
+          <t>26/02/1999</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,43 +6996,91 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
+          <t>Mejoramiento Alcantarillado y Tratamiento Aguas Servidas de Lota</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>ESSBIO S.A.</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>23/05/1997</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=333&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Lota</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F139" t="n">
+      <c r="F140" t="n">
         <v>850000</v>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>Lota</t>
         </is>

--- a/data/Lota.xlsx
+++ b/data/Lota.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/01/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,11 +5283,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5296,12 +5296,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">

--- a/data/Lota.xlsx
+++ b/data/Lota.xlsx
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,11 +5283,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5296,12 +5296,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">

--- a/data/Lota.xlsx
+++ b/data/Lota.xlsx
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,11 +5283,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5296,12 +5296,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">

--- a/data/Lota.xlsx
+++ b/data/Lota.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>23/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,11 +5283,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5296,12 +5296,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">

--- a/data/Lota.xlsx
+++ b/data/Lota.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,11 +5283,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5296,12 +5296,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
